--- a/credit_rating/result/mlist_ins.xlsx
+++ b/credit_rating/result/mlist_ins.xlsx
@@ -2,30 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiepdang\PycharmProjects\datadriven-project\credit_rating\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="24000" windowHeight="9870"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="24000" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId2"/>
+    <pivotCache cacheId="2" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>ABI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Group A</t>
   </si>
@@ -45,31 +42,13 @@
     <t>BMI</t>
   </si>
   <si>
-    <t>PTI</t>
-  </si>
-  <si>
-    <t>BLI</t>
-  </si>
-  <si>
-    <t>BVH</t>
-  </si>
-  <si>
     <t>BIC</t>
-  </si>
-  <si>
-    <t>PRE</t>
   </si>
   <si>
     <t>PVI</t>
   </si>
   <si>
-    <t>AIC</t>
-  </si>
-  <si>
     <t>VNR</t>
-  </si>
-  <si>
-    <t>MIG</t>
   </si>
   <si>
     <t>Values</t>
@@ -1009,9 +988,7 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1112,14 +1089,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1775,15 +1749,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1808,38 +1782,22 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Hiep Dang Vo" refreshedDate="44252.765586226851" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="7">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Hiep Dang Vo" refreshedDate="44253.368497916665" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="7">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D8" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Group A" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Group B" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
-    <cacheField name="Group B" numFmtId="0">
-      <sharedItems count="7">
-        <s v="BVH"/>
-        <s v="BIC"/>
-        <s v="PRE"/>
-        <s v="PVI"/>
-        <s v="AIC"/>
-        <s v="VNR"/>
-        <s v="MIG"/>
-      </sharedItems>
-    </cacheField>
     <cacheField name="Group C" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" count="1">
-        <m/>
-      </sharedItems>
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Group D" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
-        <s v="BLI"/>
-        <s v="PTI"/>
-        <s v="BMI"/>
-        <s v="PGI"/>
-        <m/>
-      </sharedItems>
+      <sharedItems containsBlank="1"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1853,83 +1811,58 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="7">
   <r>
-    <s v="ABI"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
+    <m/>
+    <s v="BIC"/>
+    <m/>
+    <s v="BMI"/>
   </r>
   <r>
     <m/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
+    <s v="PVI"/>
+    <m/>
+    <s v="PGI"/>
   </r>
   <r>
     <m/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
+    <s v="VNR"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="3"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
   <r>
     <m/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="4"/>
+    <m/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F2:G6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="8">
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="2">
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="-2"/>
@@ -2251,107 +2184,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" customWidth="1"/>
     <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1</v>
-      </c>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="F5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
